--- a/results_method1_and_2/chartbars/cadences_echos_a.xlsx
+++ b/results_method1_and_2/chartbars/cadences_echos_a.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/echos_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{03EFCC7B-36EE-40F9-9595-754A47CDEBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0F33E8-5031-4F1A-A33D-BBF374C92A90}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{543CE098-996A-4831-AF78-53D88FFD67C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4000409E-DA9C-42CE-B749-11F8003E2197}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6E72CD8-280B-4876-9D75-F5399509EB98}"/>
+    <workbookView xWindow="1965" yWindow="1215" windowWidth="26085" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pro-karykis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,15 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
-    <t>pro-Karykis</t>
+    <t>D</t>
   </si>
   <si>
-    <t>Karykis</t>
+    <t>E</t>
   </si>
   <si>
-    <t>Balasis</t>
+    <t>F</t>
   </si>
   <si>
     <t>G</t>
@@ -66,23 +63,29 @@
     <t>f</t>
   </si>
   <si>
-    <t>pitch</t>
+    <t>g</t>
   </si>
   <si>
-    <t>E</t>
+    <t>a'</t>
   </si>
   <si>
-    <t>F</t>
+    <t>pro-karykis</t>
   </si>
   <si>
-    <t>total</t>
+    <t>karykis</t>
+  </si>
+  <si>
+    <t>balasis</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +93,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,17 +230,297 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -129,23 +539,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,23 +680,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cadances (echos</a:t>
+              <a:t>absol. f. cadences (echos</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> a</a:t>
+              <a:t> a, base a</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>) - </a:t>
+              <a:t>)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>frequency</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -256,11 +734,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'pro-karykis'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pro-Karykis</c:v>
+                  <c:v>pro-karykis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -335,69 +813,96 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>'pro-karykis'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>'pro-karykis'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8176-4A23-8D88-D04D761A7689}"/>
+              <c16:uniqueId val="{00000000-D5B5-492F-B744-08BC83F0A2A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,11 +911,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'pro-karykis'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Karykis</c:v>
+                  <c:v>karykis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -485,57 +990,96 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>'pro-karykis'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>'pro-karykis'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8176-4A23-8D88-D04D761A7689}"/>
+              <c16:uniqueId val="{00000001-D5B5-492F-B744-08BC83F0A2A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -544,11 +1088,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'pro-karykis'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balasis</c:v>
+                  <c:v>balasis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -623,63 +1167,96 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>'pro-karykis'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>'pro-karykis'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8176-4A23-8D88-D04D761A7689}"/>
+              <c16:uniqueId val="{00000002-D5B5-492F-B744-08BC83F0A2A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -694,11 +1271,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1172019583"/>
-        <c:axId val="1172049119"/>
+        <c:axId val="1136645439"/>
+        <c:axId val="1136664575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1172019583"/>
+        <c:axId val="1136645439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1172049119"/>
+        <c:crossAx val="1136664575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1172049119"/>
+        <c:axId val="1136664575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +1377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1172019583"/>
+        <c:crossAx val="1136645439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,8 +1501,11 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Cadances (echos a) - relative frequency %</a:t>
+              <a:t>relat. f. cadences (echos a, base a)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -970,11 +1550,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>'pro-karykis'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pro-Karykis</c:v>
+                  <c:v>pro-karykis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -989,105 +1569,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$30</c:f>
+              <c:f>'pro-karykis'!$B$8:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$30</c:f>
+              <c:f>'pro-karykis'!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1095,32 +1626,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>5.2173913043478258E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0.5304347826086957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.5</c:v>
+                  <c:v>1.7391304347826087E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.299999999999997</c:v>
+                  <c:v>0.22608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB43-4972-B7D2-44591E3DCF43}"/>
+              <c16:uniqueId val="{00000000-6A5A-4782-B2A6-15DC26C089EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1129,11 +1669,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$21</c:f>
+              <c:f>'pro-karykis'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Karykis</c:v>
+                  <c:v>karykis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1148,105 +1688,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$30</c:f>
+              <c:f>'pro-karykis'!$B$8:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$30</c:f>
+              <c:f>'pro-karykis'!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1257,21 +1748,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.4</c:v>
+                  <c:v>8.6956521739130436E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>8.6956521739130436E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.70434782608695656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6956521739130436E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6956521739130436E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1279,7 +1779,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AB43-4972-B7D2-44591E3DCF43}"/>
+              <c16:uniqueId val="{00000001-6A5A-4782-B2A6-15DC26C089EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1288,11 +1788,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>'pro-karykis'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balasis</c:v>
+                  <c:v>balasis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1307,130 +1807,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$30</c:f>
+              <c:f>'pro-karykis'!$B$8:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>E</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>F</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>G</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>b</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>e</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$30</c:f>
+              <c:f>'pro-karykis'!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6260162601626018E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.34959349593495936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6260162601626018E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>0.54471544715447151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3170731707317069E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1438,14 +1898,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AB43-4972-B7D2-44591E3DCF43}"/>
+              <c16:uniqueId val="{00000002-6A5A-4782-B2A6-15DC26C089EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1453,11 +1912,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1490011615"/>
-        <c:axId val="1490005375"/>
+        <c:axId val="1210722543"/>
+        <c:axId val="1210722959"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1490011615"/>
+        <c:axId val="1210722543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490005375"/>
+        <c:crossAx val="1210722959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1490005375"/>
+        <c:axId val="1210722959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +2018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490011615"/>
+        <c:crossAx val="1210722543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2736,23 +3195,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51287</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>593481</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317D6AF2-1FB1-4483-9D6B-F480C61BC708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400A4DA9-A0DC-446F-AE4D-2413724335C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,23 +3231,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14655</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21982</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD1B732-4B44-439D-A098-9D02D1826494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51213789-6995-44FB-910E-54730B03C0A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,25 +3564,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90382DA-3F94-4736-9C8E-9D8ACB8E9594}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3133,288 +3587,410 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(B2:M2)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>81</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>SUM(B3:M3)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f>SUM(B4:M4)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B9" s="1">
+        <f>B2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E2/N2</f>
+        <v>5.2173913043478258E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F2/N2</f>
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G2/N2</f>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H2/N2</f>
+        <v>0.22608695652173913</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I2/N2</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f>K2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>L2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>M2/N2</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f>SUM(B9:M9)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f>E3/N3</f>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F3/N3</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>H3/N3</f>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I3/N3</f>
+        <v>0.70434782608695656</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J3/N3</f>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <f>K3/N3</f>
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <f>L3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>M3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUM(B10:M10)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <f>SUM(C2:C10)</f>
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D2:D10)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <f>ROUND(B2/B11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <f>ROUND(C2/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <f>ROUND(D2/D11,3)*100</f>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <f>ROUND(B3/B11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <f>ROUND(C3/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <f>ROUND(D3/D11,3)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <f>ROUND(B4/B11,3)*100</f>
-        <v>3.1</v>
-      </c>
-      <c r="C24" s="1">
-        <f>ROUND(C4/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <f>ROUND(D4/D11,3)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
-        <f>ROUND(B5/B11,3)*100</f>
-        <v>52</v>
-      </c>
-      <c r="C25" s="1">
-        <f>ROUND(C5/C11,3)*100</f>
-        <v>29.4</v>
-      </c>
-      <c r="D25" s="1">
-        <f>ROUND(D5/D11,3)*100</f>
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <f>ROUND(B6/B11,3)*100</f>
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <f>ROUND(C6/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <f>ROUND(D6/D11,3)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <f>ROUND(B7/B11,3)*100</f>
-        <v>24.5</v>
-      </c>
-      <c r="C27" s="1">
-        <f>ROUND(C7/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f>ROUND(D7/D11,3)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1">
-        <f>ROUND(B8/B11,3)*100</f>
-        <v>17.299999999999997</v>
-      </c>
-      <c r="C28" s="1">
-        <f>ROUND(C8/C11,3)*100</f>
-        <v>70.599999999999994</v>
-      </c>
-      <c r="D28" s="1">
-        <f>ROUND(D8/D11,3)*100</f>
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
-        <f>ROUND(B9/B11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <f>ROUND(C9/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <f>ROUND(D9/D11,3)*100</f>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
-        <f>ROUND(B10/B11,3)*100</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <f>ROUND(C10/C11,3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <f>ROUND(D10/D11,3)*100</f>
-        <v>0</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C4/N4</f>
+        <v>1.6260162601626018E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F4/N4</f>
+        <v>0.34959349593495936</v>
+      </c>
+      <c r="G11" s="1">
+        <f>G4/N4</f>
+        <v>1.6260162601626018E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f>H4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I4/N4</f>
+        <v>0.54471544715447151</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J4/N4</f>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f>K4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>L4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M4/N4</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f>SUM(B11:M11)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:M11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
